--- a/biology/Zoologie/Diadematidae/Diadematidae.xlsx
+++ b/biology/Zoologie/Diadematidae/Diadematidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Diadematidae forment une famille de grands oursins réguliers aux épines longues et venimeuses. On les trouve principalement dans les mers tropicales.
 </t>
@@ -513,19 +525,59 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Description générale
-Ce sont des oursins dits « réguliers » : ils sont caractérisés par un test (coquille) sphérique plus ou moins aplati dorsalement chez certaines espèces, et presque uniformément couvert de radioles (piquants) réparties sur tout le corps, mais plus longues sur la partie supérieure. 
+          <t>Description générale</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des oursins dits « réguliers » : ils sont caractérisés par un test (coquille) sphérique plus ou moins aplati dorsalement chez certaines espèces, et presque uniformément couvert de radioles (piquants) réparties sur tout le corps, mais plus longues sur la partie supérieure. 
 La bouche (appelée « péristome ») se situe au centre de la face inférieure (dite face « orale »), et l'anus (appelé « périprocte ») à l'opposé, soit au sommet du test (à l'« apex » de la face aborale).
-Les Diadematidae sont des oursins généralement assez gros, pourvus de longues radioles coniques, creuses et disposées en groupes bien délimités respectant la symétrie pentaradiaire, et supportées par des mamelons perforés[1]. Ces radioles sont généralement annelées chez les juvéniles, et prennent des coloris variables généralement plus sombres chez les adultes mais peuvent conserver leurs stries. Les radioles secondaires, plus fines et courtes et souvent d'une couleur différente, sont généralement équipées de glandes à venin, pouvant provoquer de vives douleurs à la piqûre, mais sans grand danger. 
+Les Diadematidae sont des oursins généralement assez gros, pourvus de longues radioles coniques, creuses et disposées en groupes bien délimités respectant la symétrie pentaradiaire, et supportées par des mamelons perforés. Ces radioles sont généralement annelées chez les juvéniles, et prennent des coloris variables généralement plus sombres chez les adultes mais peuvent conserver leurs stries. Les radioles secondaires, plus fines et courtes et souvent d'une couleur différente, sont généralement équipées de glandes à venin, pouvant provoquer de vives douleurs à la piqûre, mais sans grand danger. 
 Ces oursins sont parfois totalement noirs (un bruns), mais d'autres sont très colorés (par exemple Astropyga magnifica). Leur face aborale présente généralement des zones nues décorées de motifs colorés ou lumineux.
-La papille anale, caractéristique, est généralement volumineuse et bien visible[2] (mais moins chez Centrostephanus).
-Ces espèces sont pourvues de cellules photosensibles sur la partie supérieure du test, leur permettant de voir au-dessus d'eux afin d'orienter efficacement les radioles vers d'éventuelles menaces[3]. 
-Caractéristiques squelettiques
-La coquille (« test »), légèrement flexible, est ronde mais prend une conformation plus aplatie chez les adultes. Les plaques ambulacraires portent trois doublets de pores aquifères (trigémination). Les plaques interambulacraires portent plusieurs gros tubercules isométriques (perforés et presque toujours crénulés) formant des rangées. 
+La papille anale, caractéristique, est généralement volumineuse et bien visible (mais moins chez Centrostephanus).
+Ces espèces sont pourvues de cellules photosensibles sur la partie supérieure du test, leur permettant de voir au-dessus d'eux afin d'orienter efficacement les radioles vers d'éventuelles menaces. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Diadematidae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diadematidae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description et caractéristiques</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Caractéristiques squelettiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La coquille (« test »), légèrement flexible, est ronde mais prend une conformation plus aplatie chez les adultes. Les plaques ambulacraires portent trois doublets de pores aquifères (trigémination). Les plaques interambulacraires portent plusieurs gros tubercules isométriques (perforés et presque toujours crénulés) formant des rangées. 
 Le disque apical est réduit et généralement hémicyclique, avec des plaques génitales projetées distalement. 
-Le péristome est petit, entouré d'encoches buccales arrondies et de petites encoches perradiales ; la mâchoire (« lanterne d'Aristote ») est de type holodonte, avec cinq dents droites en forme de gouttière, et repose dans un péristome de diamètre réduit[1].
-Certains caractéristiques visuels peuvent être utilisés dans la reconnaissances des différentes espèces sympatriques : silhouette, couleurs, motifs à la surface du test... Mais certains genres étant très proches morphologiquement et visuellement, pour une détermination scientifique dans les cas litigieux il est recommandé d'avoir recours à un examen détaillé du test[4] et des radioles[5] sur des spécimens prélevés.
-Les larves n'ont que deux bras[1].
+Le péristome est petit, entouré d'encoches buccales arrondies et de petites encoches perradiales ; la mâchoire (« lanterne d'Aristote ») est de type holodonte, avec cinq dents droites en forme de gouttière, et repose dans un péristome de diamètre réduit.
+Certains caractéristiques visuels peuvent être utilisés dans la reconnaissances des différentes espèces sympatriques : silhouette, couleurs, motifs à la surface du test... Mais certains genres étant très proches morphologiquement et visuellement, pour une détermination scientifique dans les cas litigieux il est recommandé d'avoir recours à un examen détaillé du test et des radioles sur des spécimens prélevés.
+Les larves n'ont que deux bras.
 			Test d’Astropyga magnifica
 			Centrostephanus sylviae
 			Chaetodiadema pallidum
@@ -535,33 +587,35 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Diadematidae</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Diadematidae</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Liste des genres actuels</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille est apparue au Crétacé (Aptien)[1]. Elle est aujourd'hui répandue dans toutes les mers tropicales et subtropicales du globe[1]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille est apparue au Crétacé (Aptien). Elle est aujourd'hui répandue dans toutes les mers tropicales et subtropicales du globe. 
 			Astropyga radiata.
 			Centrostephanus longispinus.
 			Chaetodiadema granulatum.
@@ -573,31 +627,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Diadematidae</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Diadematidae</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Tableau des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
